--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/45.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/45.xlsx
@@ -479,13 +479,13 @@
         <v>-13.7171980267397</v>
       </c>
       <c r="E2" t="n">
-        <v>-17.61412385283884</v>
+        <v>-17.59623986571967</v>
       </c>
       <c r="F2" t="n">
-        <v>3.757372757760544</v>
+        <v>3.715527747986619</v>
       </c>
       <c r="G2" t="n">
-        <v>-9.470412223488143</v>
+        <v>-9.442515550305528</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-13.27084458906089</v>
       </c>
       <c r="E3" t="n">
-        <v>-18.25628023778752</v>
+        <v>-18.2328472278744</v>
       </c>
       <c r="F3" t="n">
-        <v>3.663156706428226</v>
+        <v>3.615469333448338</v>
       </c>
       <c r="G3" t="n">
-        <v>-9.30158014935297</v>
+        <v>-9.277105780977195</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-12.75634282447398</v>
       </c>
       <c r="E4" t="n">
-        <v>-18.67224672003838</v>
+        <v>-18.64815369419822</v>
       </c>
       <c r="F4" t="n">
-        <v>3.891209320742341</v>
+        <v>3.84596645119591</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.258331994608241</v>
+        <v>-9.233813625170662</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-12.23826665868689</v>
       </c>
       <c r="E5" t="n">
-        <v>-19.4891655444518</v>
+        <v>-19.45974350112671</v>
       </c>
       <c r="F5" t="n">
-        <v>4.138265504748154</v>
+        <v>4.092206171054948</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.159696281068232</v>
+        <v>-9.138805554725904</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-11.7033980807196</v>
       </c>
       <c r="E6" t="n">
-        <v>-20.06617102389197</v>
+        <v>-20.03188441873429</v>
       </c>
       <c r="F6" t="n">
-        <v>4.223373336287409</v>
+        <v>4.172693891104969</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.552975417890954</v>
+        <v>-8.533976737206121</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-11.17471671638694</v>
       </c>
       <c r="E7" t="n">
-        <v>-20.75933441748317</v>
+        <v>-20.72183084580707</v>
       </c>
       <c r="F7" t="n">
-        <v>4.36660168146055</v>
+        <v>4.315565338776825</v>
       </c>
       <c r="G7" t="n">
-        <v>-8.390963508335126</v>
+        <v>-8.37025856425374</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-10.65043712713599</v>
       </c>
       <c r="E8" t="n">
-        <v>-21.29237305816917</v>
+        <v>-21.25526060704242</v>
       </c>
       <c r="F8" t="n">
-        <v>4.500873366053502</v>
+        <v>4.457703435418643</v>
       </c>
       <c r="G8" t="n">
-        <v>-8.039233687308663</v>
+        <v>-8.021481703374896</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-10.13701202990866</v>
       </c>
       <c r="E9" t="n">
-        <v>-21.77782210601262</v>
+        <v>-21.73916472871593</v>
       </c>
       <c r="F9" t="n">
-        <v>4.619730011995071</v>
+        <v>4.578950805718134</v>
       </c>
       <c r="G9" t="n">
-        <v>-8.375460467560139</v>
+        <v>-8.359263187810049</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-9.636292138951882</v>
       </c>
       <c r="E10" t="n">
-        <v>-22.46363732228285</v>
+        <v>-22.41935758708921</v>
       </c>
       <c r="F10" t="n">
-        <v>5.00829361075687</v>
+        <v>4.966639272250755</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.137013824646962</v>
+        <v>-8.116900450396475</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-9.140580328580816</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.31820149957152</v>
+        <v>-23.27243550629033</v>
       </c>
       <c r="F11" t="n">
-        <v>5.172388237238004</v>
+        <v>5.132073486613423</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.691336847665863</v>
+        <v>-7.676968056483999</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-8.656791704060948</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.09433133969427</v>
+        <v>-24.04834534110406</v>
       </c>
       <c r="F12" t="n">
-        <v>5.497316522620038</v>
+        <v>5.460917866495857</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.12311691356554</v>
+        <v>-7.110537498896968</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-8.168986089283289</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.63569107006776</v>
+        <v>-24.59557187971786</v>
       </c>
       <c r="F13" t="n">
-        <v>6.276883334570227</v>
+        <v>6.238304181383402</v>
       </c>
       <c r="G13" t="n">
-        <v>-6.86003456504998</v>
+        <v>-6.847841381923893</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-7.690153890923328</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.81495374941571</v>
+        <v>-25.77531368173877</v>
       </c>
       <c r="F14" t="n">
-        <v>6.410798121661895</v>
+        <v>6.374282129372907</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.359962497667584</v>
+        <v>-6.347378193992145</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-7.205770561278603</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.18503690222057</v>
+        <v>-26.14802712023803</v>
       </c>
       <c r="F15" t="n">
-        <v>6.646394473571659</v>
+        <v>6.614586594895511</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.860926899740974</v>
+        <v>-5.844079382077585</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-6.726814009441117</v>
       </c>
       <c r="E16" t="n">
-        <v>-27.20207744471742</v>
+        <v>-27.17720462228199</v>
       </c>
       <c r="F16" t="n">
-        <v>6.892766196616104</v>
+        <v>6.864835300385419</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.625433216975416</v>
+        <v>-5.607016328107747</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-6.244906536375506</v>
       </c>
       <c r="E17" t="n">
-        <v>-28.04470266723708</v>
+        <v>-28.02441084423595</v>
       </c>
       <c r="F17" t="n">
-        <v>7.221331903107123</v>
+        <v>7.194716149723638</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.184386129497284</v>
+        <v>-5.165079441379837</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-5.769124050639922</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.60108876021604</v>
+        <v>-28.58177718309172</v>
       </c>
       <c r="F18" t="n">
-        <v>7.597008079767734</v>
+        <v>7.577544943430547</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.038713280890686</v>
+        <v>-5.017431433999006</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-5.301531763589966</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.5318945550908</v>
+        <v>-29.5139494553858</v>
       </c>
       <c r="F19" t="n">
-        <v>7.712696649259543</v>
+        <v>7.689825875136115</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.926143897779969</v>
+        <v>-4.897347647333841</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-4.852639952721987</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.97719752304659</v>
+        <v>-29.96592102870805</v>
       </c>
       <c r="F20" t="n">
-        <v>7.899182927191147</v>
+        <v>7.875168125460861</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.740992318723033</v>
+        <v>-4.715061026300917</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-4.436456561048611</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.82131144815722</v>
+        <v>-30.81226678545343</v>
       </c>
       <c r="F21" t="n">
-        <v>8.205748102781049</v>
+        <v>8.186803201171754</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.658143208356293</v>
+        <v>-4.630407872400284</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-4.063223620004514</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.98727367526152</v>
+        <v>-30.97850035243884</v>
       </c>
       <c r="F22" t="n">
-        <v>8.249846944720622</v>
+        <v>8.222072496709679</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.88118459063182</v>
+        <v>-4.849195818701595</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-3.756170591226611</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.47254671885776</v>
+        <v>-31.46493209066254</v>
       </c>
       <c r="F23" t="n">
-        <v>8.282798851003628</v>
+        <v>8.25676000043044</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.69339294786675</v>
+        <v>-4.658871670379463</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-3.522227745426961</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.49037937140483</v>
+        <v>-31.48346142668814</v>
       </c>
       <c r="F24" t="n">
-        <v>8.665148522037578</v>
+        <v>8.637701637486717</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.882651292691894</v>
+        <v>-4.848482023699026</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-3.387341755068378</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.57115065385313</v>
+        <v>-31.56630809255145</v>
       </c>
       <c r="F25" t="n">
-        <v>8.614992200589898</v>
+        <v>8.585320817914592</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.702970512319036</v>
+        <v>-4.670615064873793</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-3.351435521308031</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.50951494428194</v>
+        <v>-31.50230365915324</v>
       </c>
       <c r="F26" t="n">
-        <v>8.245720622924946</v>
+        <v>8.214533648120895</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.724868374075948</v>
+        <v>-4.695343661606649</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-3.43169677916148</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.61532771990258</v>
+        <v>-31.6111500635348</v>
       </c>
       <c r="F27" t="n">
-        <v>8.464435234123252</v>
+        <v>8.429043713413655</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.501015416660513</v>
+        <v>-4.473231190635835</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-3.619556262554123</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.33336402686699</v>
+        <v>-31.32664408692841</v>
       </c>
       <c r="F28" t="n">
-        <v>8.447431268240122</v>
+        <v>8.409399683822391</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.731624981566025</v>
+        <v>-4.69944553836799</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-3.914517203220355</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.07043323756431</v>
+        <v>-31.0676709486845</v>
       </c>
       <c r="F29" t="n">
-        <v>8.300790396273875</v>
+        <v>8.258573821978064</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.640151663086046</v>
+        <v>-4.602506310210801</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-4.298065588527006</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.36496901175816</v>
+        <v>-31.35666503359471</v>
       </c>
       <c r="F30" t="n">
-        <v>7.911674339736114</v>
+        <v>7.872146719217107</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.89189640467723</v>
+        <v>-4.853855042245765</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-4.750270166654701</v>
       </c>
       <c r="E31" t="n">
-        <v>-31.09368290971992</v>
+        <v>-31.08411267877793</v>
       </c>
       <c r="F31" t="n">
-        <v>7.963444033449877</v>
+        <v>7.923887078889668</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.82991846462535</v>
+        <v>-4.79251756209345</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-5.247206215396855</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.86896948709591</v>
+        <v>-30.86317845846204</v>
       </c>
       <c r="F32" t="n">
-        <v>7.851637335410399</v>
+        <v>7.810007441938618</v>
       </c>
       <c r="G32" t="n">
-        <v>-5.022530668161198</v>
+        <v>-4.984107963194113</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-5.758662632309115</v>
       </c>
       <c r="E33" t="n">
-        <v>-30.37842609409713</v>
+        <v>-30.36700048504915</v>
       </c>
       <c r="F33" t="n">
-        <v>7.919359858530905</v>
+        <v>7.872024494045434</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.936415701207358</v>
+        <v>-4.888635437096998</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-6.261785420911537</v>
       </c>
       <c r="E34" t="n">
-        <v>-30.01608468366603</v>
+        <v>-30.00302125731763</v>
       </c>
       <c r="F34" t="n">
-        <v>7.901500316446064</v>
+        <v>7.858819286497897</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.025385848171476</v>
+        <v>-4.971381878319534</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-6.721570778686843</v>
       </c>
       <c r="E35" t="n">
-        <v>-29.77316459946962</v>
+        <v>-29.75876402974313</v>
       </c>
       <c r="F35" t="n">
-        <v>8.011253631601438</v>
+        <v>7.963717817834424</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.927635044874378</v>
+        <v>-4.879620108434407</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-7.120232646180015</v>
       </c>
       <c r="E36" t="n">
-        <v>-29.42576888303068</v>
+        <v>-29.41390081886125</v>
       </c>
       <c r="F36" t="n">
-        <v>8.098986859828226</v>
+        <v>8.052052393905843</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.118809880391354</v>
+        <v>-5.063436988616675</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-7.430065400856762</v>
       </c>
       <c r="E37" t="n">
-        <v>-29.33139149447176</v>
+        <v>-29.31605467993024</v>
       </c>
       <c r="F37" t="n">
-        <v>8.275279558442314</v>
+        <v>8.222224055922553</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.165240778606445</v>
+        <v>-5.111823489578533</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-7.645769021187037</v>
       </c>
       <c r="E38" t="n">
-        <v>-28.70231075838864</v>
+        <v>-28.6851087877274</v>
       </c>
       <c r="F38" t="n">
-        <v>8.018548029846876</v>
+        <v>7.970782432757116</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.146985226965385</v>
+        <v>-5.095386648491965</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-7.754359553819197</v>
       </c>
       <c r="E39" t="n">
-        <v>-28.39076368480135</v>
+        <v>-28.373363709362</v>
       </c>
       <c r="F39" t="n">
-        <v>7.902531896894984</v>
+        <v>7.854125839905659</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.256313198523337</v>
+        <v>-5.20380526477267</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-7.760246297118198</v>
       </c>
       <c r="E40" t="n">
-        <v>-27.9525277762717</v>
+        <v>-27.93370509983408</v>
       </c>
       <c r="F40" t="n">
-        <v>7.944376906668909</v>
+        <v>7.894763264983456</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.095455094588101</v>
+        <v>-5.042340923985937</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-7.665297993881609</v>
       </c>
       <c r="E41" t="n">
-        <v>-27.72762368237988</v>
+        <v>-27.7090747903268</v>
       </c>
       <c r="F41" t="n">
-        <v>7.715150930706734</v>
+        <v>7.667712897077059</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.615132079506825</v>
+        <v>-5.561088997599947</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-7.481858099926754</v>
       </c>
       <c r="E42" t="n">
-        <v>-27.07378257101927</v>
+        <v>-27.0604429157829</v>
       </c>
       <c r="F42" t="n">
-        <v>7.623051819347791</v>
+        <v>7.573707073040018</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.327942038130508</v>
+        <v>-5.276279902567818</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-7.227027934315482</v>
       </c>
       <c r="E43" t="n">
-        <v>-26.73543640629099</v>
+        <v>-26.7191584579276</v>
       </c>
       <c r="F43" t="n">
-        <v>7.640129120333925</v>
+        <v>7.589376340048481</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.450064540659176</v>
+        <v>-5.393875184737722</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-6.919864253689612</v>
       </c>
       <c r="E44" t="n">
-        <v>-26.16443462728339</v>
+        <v>-26.14643330399941</v>
       </c>
       <c r="F44" t="n">
-        <v>7.737493692088536</v>
+        <v>7.684663083884653</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.543620576064461</v>
+        <v>-5.490242399091483</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-6.588343967351743</v>
       </c>
       <c r="E45" t="n">
-        <v>-25.47536822144667</v>
+        <v>-25.45578285993781</v>
       </c>
       <c r="F45" t="n">
-        <v>7.801872134512072</v>
+        <v>7.748811742985444</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.593160882646909</v>
+        <v>-5.54249610448507</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-6.248557291417245</v>
       </c>
       <c r="E46" t="n">
-        <v>-25.15005370452215</v>
+        <v>-25.13295684750855</v>
       </c>
       <c r="F46" t="n">
-        <v>7.626371455010426</v>
+        <v>7.576410693837422</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.478640785796294</v>
+        <v>-5.428856028870499</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-5.928811946377613</v>
       </c>
       <c r="E47" t="n">
-        <v>-24.94206557438985</v>
+        <v>-24.92309133873935</v>
       </c>
       <c r="F47" t="n">
-        <v>7.723393796284353</v>
+        <v>7.676092654846951</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.363587787197185</v>
+        <v>-5.318643147069635</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-5.634839322998483</v>
       </c>
       <c r="E48" t="n">
-        <v>-24.51698598333906</v>
+        <v>-24.49928777848083</v>
       </c>
       <c r="F48" t="n">
-        <v>7.699662556952348</v>
+        <v>7.653070321510649</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.312815450884273</v>
+        <v>-5.267694806509515</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-5.385570432787483</v>
       </c>
       <c r="E49" t="n">
-        <v>-23.72531399038639</v>
+        <v>-23.70544017747238</v>
       </c>
       <c r="F49" t="n">
-        <v>7.985053443801641</v>
+        <v>7.934760230161687</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.416242391153858</v>
+        <v>-5.377355230534417</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-5.176469776186421</v>
       </c>
       <c r="E50" t="n">
-        <v>-23.66552632541089</v>
+        <v>-23.64634186246511</v>
       </c>
       <c r="F50" t="n">
-        <v>7.712716205287011</v>
+        <v>7.665356395767206</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.431730764908245</v>
+        <v>-5.39598723570423</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-5.013544386318624</v>
       </c>
       <c r="E51" t="n">
-        <v>-22.9962408413577</v>
+        <v>-22.97618124618275</v>
       </c>
       <c r="F51" t="n">
-        <v>7.777911111857322</v>
+        <v>7.737371466916863</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.248852574044425</v>
+        <v>-5.213397496245557</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-4.887753961119611</v>
       </c>
       <c r="E52" t="n">
-        <v>-22.48300756748957</v>
+        <v>-22.46271818899188</v>
       </c>
       <c r="F52" t="n">
-        <v>7.620617093928067</v>
+        <v>7.577779615760158</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.444901749407714</v>
+        <v>-5.410150688597683</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-4.794080970602241</v>
       </c>
       <c r="E53" t="n">
-        <v>-22.13382491904077</v>
+        <v>-22.11402444122977</v>
       </c>
       <c r="F53" t="n">
-        <v>7.984461873970744</v>
+        <v>7.946034279996793</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.366677639537075</v>
+        <v>-5.338419179846307</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-4.72357740910587</v>
       </c>
       <c r="E54" t="n">
-        <v>-21.36385033856347</v>
+        <v>-21.34642591808979</v>
       </c>
       <c r="F54" t="n">
-        <v>7.930927248778025</v>
+        <v>7.893228116827244</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.383280706857118</v>
+        <v>-5.352377294451348</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-4.665498097290931</v>
       </c>
       <c r="E55" t="n">
-        <v>-21.09092641922481</v>
+        <v>-21.07419134871936</v>
       </c>
       <c r="F55" t="n">
-        <v>7.716299847320459</v>
+        <v>7.68309860168724</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.525702365897217</v>
+        <v>-5.502308468039029</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-4.616647770674026</v>
       </c>
       <c r="E56" t="n">
-        <v>-20.58119367427339</v>
+        <v>-20.56664398983745</v>
       </c>
       <c r="F56" t="n">
-        <v>7.616705888434535</v>
+        <v>7.578009399082903</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.561783236575049</v>
+        <v>-5.537846658954634</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-4.565517262001862</v>
       </c>
       <c r="E57" t="n">
-        <v>-20.29419430416488</v>
+        <v>-20.28169800261305</v>
       </c>
       <c r="F57" t="n">
-        <v>7.521604926859306</v>
+        <v>7.488169008896474</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.804449092414373</v>
+        <v>-5.783817483435992</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-4.515769423465477</v>
       </c>
       <c r="E58" t="n">
-        <v>-19.80209620698242</v>
+        <v>-19.79279731592155</v>
       </c>
       <c r="F58" t="n">
-        <v>7.155115194101628</v>
+        <v>7.122422405182567</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.091399572454212</v>
+        <v>-6.067986118568556</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-4.45777655047698</v>
       </c>
       <c r="E59" t="n">
-        <v>-19.30176013322922</v>
+        <v>-19.28374414292463</v>
       </c>
       <c r="F59" t="n">
-        <v>7.501247102265472</v>
+        <v>7.460003440336177</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.981172023632748</v>
+        <v>-5.955592739705049</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-4.398510401206518</v>
       </c>
       <c r="E60" t="n">
-        <v>-18.89433474597486</v>
+        <v>-18.87373247103768</v>
       </c>
       <c r="F60" t="n">
-        <v>7.347365611129324</v>
+        <v>7.308634898729624</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.248033574456433</v>
+        <v>-6.219687112642061</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-4.331794195484115</v>
       </c>
       <c r="E61" t="n">
-        <v>-18.59931251559774</v>
+        <v>-18.5801084966245</v>
       </c>
       <c r="F61" t="n">
-        <v>7.059261325468893</v>
+        <v>7.019577256730144</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.333864979011992</v>
+        <v>-6.304692275037111</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-4.264732908992436</v>
       </c>
       <c r="E62" t="n">
-        <v>-18.24756313854381</v>
+        <v>-18.22584617004098</v>
       </c>
       <c r="F62" t="n">
-        <v>7.201301641973373</v>
+        <v>7.158473941819198</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.325226103878153</v>
+        <v>-6.30106463194186</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-4.196069930810125</v>
       </c>
       <c r="E63" t="n">
-        <v>-17.68469177795589</v>
+        <v>-17.66030052269686</v>
       </c>
       <c r="F63" t="n">
-        <v>7.037319462650179</v>
+        <v>6.994804658935486</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.217413724448945</v>
+        <v>-6.190817527092928</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-4.131091051788911</v>
       </c>
       <c r="E64" t="n">
-        <v>-17.68775718526145</v>
+        <v>-17.66906162300237</v>
       </c>
       <c r="F64" t="n">
-        <v>6.835999937884354</v>
+        <v>6.797142111306115</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.382158588843378</v>
+        <v>-6.354017465317416</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-4.073100373084615</v>
       </c>
       <c r="E65" t="n">
-        <v>-17.46501892141167</v>
+        <v>-17.4419916990685</v>
       </c>
       <c r="F65" t="n">
-        <v>7.025532067094047</v>
+        <v>6.983452384990509</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.356065959194653</v>
+        <v>-6.324184745415501</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-4.024122873307497</v>
       </c>
       <c r="E66" t="n">
-        <v>-17.41266254687388</v>
+        <v>-17.39043712165688</v>
       </c>
       <c r="F66" t="n">
-        <v>6.949322228052576</v>
+        <v>6.905795399916433</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.382632822509469</v>
+        <v>-6.357547328275328</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-3.989349078820592</v>
       </c>
       <c r="E67" t="n">
-        <v>-17.29411390836493</v>
+        <v>-17.26640301744325</v>
       </c>
       <c r="F67" t="n">
-        <v>6.788415234048672</v>
+        <v>6.746477333144275</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.45327897173639</v>
+        <v>-6.423148022415593</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-3.965381937400609</v>
       </c>
       <c r="E68" t="n">
-        <v>-16.94299521319683</v>
+        <v>-16.91799772108629</v>
       </c>
       <c r="F68" t="n">
-        <v>6.687119900773061</v>
+        <v>6.644297089625753</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.684440994417862</v>
+        <v>-6.650305948473062</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-3.957385211981943</v>
       </c>
       <c r="E69" t="n">
-        <v>-16.69306918216014</v>
+        <v>-16.67284824975858</v>
       </c>
       <c r="F69" t="n">
-        <v>6.802466239784185</v>
+        <v>6.759134971922718</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.370175633012569</v>
+        <v>-6.333283187194829</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-3.957056655676013</v>
       </c>
       <c r="E70" t="n">
-        <v>-16.51830674269539</v>
+        <v>-16.49905383365348</v>
       </c>
       <c r="F70" t="n">
-        <v>6.761985262926129</v>
+        <v>6.720409148529884</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.283605988420106</v>
+        <v>-6.242895228239306</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-3.967660248272566</v>
       </c>
       <c r="E71" t="n">
-        <v>-16.61374993475131</v>
+        <v>-16.59187651802873</v>
       </c>
       <c r="F71" t="n">
-        <v>6.626882447165801</v>
+        <v>6.584797876055398</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.028575834214355</v>
+        <v>-5.983841421382083</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-3.978836747209974</v>
       </c>
       <c r="E72" t="n">
-        <v>-16.58908978411459</v>
+        <v>-16.56433185334053</v>
       </c>
       <c r="F72" t="n">
-        <v>6.563066240531961</v>
+        <v>6.518454052871362</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.966754342382216</v>
+        <v>-5.924185759591987</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-3.989833070397304</v>
       </c>
       <c r="E73" t="n">
-        <v>-16.53398089871072</v>
+        <v>-16.51232259829029</v>
       </c>
       <c r="F73" t="n">
-        <v>6.597739077232122</v>
+        <v>6.555918512492531</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.141106105270136</v>
+        <v>-6.092524044033603</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-3.990865530424482</v>
       </c>
       <c r="E74" t="n">
-        <v>-16.62475020020187</v>
+        <v>-16.60987295230585</v>
       </c>
       <c r="F74" t="n">
-        <v>6.472306717054551</v>
+        <v>6.434236020581885</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.806932707902766</v>
+        <v>-5.757832411938339</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-3.977061950107089</v>
       </c>
       <c r="E75" t="n">
-        <v>-16.94090760726466</v>
+        <v>-16.92169869928455</v>
       </c>
       <c r="F75" t="n">
-        <v>6.264709707471609</v>
+        <v>6.222786473587814</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.840212177645856</v>
+        <v>-5.791214550825634</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-3.9414586085273</v>
       </c>
       <c r="E76" t="n">
-        <v>-17.01432093437825</v>
+        <v>-16.99257952084108</v>
       </c>
       <c r="F76" t="n">
-        <v>6.152120768333424</v>
+        <v>6.110471318834176</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.699247442652097</v>
+        <v>-5.644246115399304</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.877952458606669</v>
       </c>
       <c r="E77" t="n">
-        <v>-17.15692348667243</v>
+        <v>-17.13664388618846</v>
       </c>
       <c r="F77" t="n">
-        <v>6.13547369995158</v>
+        <v>6.092137543083245</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.545879297236976</v>
+        <v>-5.485387615272637</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.783805148449358</v>
       </c>
       <c r="E78" t="n">
-        <v>-17.60494229794278</v>
+        <v>-17.58296132306913</v>
       </c>
       <c r="F78" t="n">
-        <v>6.091418859073809</v>
+        <v>6.042856353864742</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.146701664567104</v>
+        <v>-5.087324676168421</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.653511558314348</v>
       </c>
       <c r="E79" t="n">
-        <v>-17.69162438969318</v>
+        <v>-17.67511421350361</v>
       </c>
       <c r="F79" t="n">
-        <v>6.156066196875025</v>
+        <v>6.11152734431743</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.941035812696592</v>
+        <v>-4.88249973347902</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.489875526277705</v>
       </c>
       <c r="E80" t="n">
-        <v>-18.14405308515749</v>
+        <v>-18.12139253832934</v>
       </c>
       <c r="F80" t="n">
-        <v>5.825569332671575</v>
+        <v>5.782453181112252</v>
       </c>
       <c r="G80" t="n">
-        <v>-4.441364643877284</v>
+        <v>-4.391222989450204</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.290517494400375</v>
       </c>
       <c r="E81" t="n">
-        <v>-18.99324913290628</v>
+        <v>-18.96638404017258</v>
       </c>
       <c r="F81" t="n">
-        <v>5.936168446014925</v>
+        <v>5.892788288084788</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.325979192811224</v>
+        <v>-4.273187696662276</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-3.064085884413961</v>
       </c>
       <c r="E82" t="n">
-        <v>-19.72575925376242</v>
+        <v>-19.70208668251281</v>
       </c>
       <c r="F82" t="n">
-        <v>5.667502851657347</v>
+        <v>5.627818782918599</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.253201436590328</v>
+        <v>-4.19592672114442</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-2.813351673172269</v>
       </c>
       <c r="E83" t="n">
-        <v>-20.49540138177277</v>
+        <v>-20.46765137879616</v>
       </c>
       <c r="F83" t="n">
-        <v>5.355403320294098</v>
+        <v>5.31383209490472</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.166563345901729</v>
+        <v>-4.109841088231781</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-2.550268008381254</v>
       </c>
       <c r="E84" t="n">
-        <v>-21.58763973888964</v>
+        <v>-21.56949174539965</v>
       </c>
       <c r="F84" t="n">
-        <v>5.244623313696672</v>
+        <v>5.201116041587996</v>
       </c>
       <c r="G84" t="n">
-        <v>-3.849560140650963</v>
+        <v>-3.78898045656302</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-2.28230114410072</v>
       </c>
       <c r="E85" t="n">
-        <v>-22.65273921888826</v>
+        <v>-22.6292670969202</v>
       </c>
       <c r="F85" t="n">
-        <v>5.372089500730879</v>
+        <v>5.324895917444548</v>
       </c>
       <c r="G85" t="n">
-        <v>-3.895526583213698</v>
+        <v>-3.83774341105363</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-2.021927238786311</v>
       </c>
       <c r="E86" t="n">
-        <v>-23.45896089627687</v>
+        <v>-23.44101335206842</v>
       </c>
       <c r="F86" t="n">
-        <v>4.994350163172429</v>
+        <v>4.950955338221692</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.834105989944645</v>
+        <v>-3.77650860004552</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-1.77945681788995</v>
       </c>
       <c r="E87" t="n">
-        <v>-24.16704553882589</v>
+        <v>-24.1507162558904</v>
       </c>
       <c r="F87" t="n">
-        <v>4.744565913334878</v>
+        <v>4.699303487760979</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.84444623946817</v>
+        <v>-3.782292295169081</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-1.565113806126855</v>
       </c>
       <c r="E88" t="n">
-        <v>-25.50177863654174</v>
+        <v>-25.48307818527579</v>
       </c>
       <c r="F88" t="n">
-        <v>4.789486108428092</v>
+        <v>4.74796866211425</v>
       </c>
       <c r="G88" t="n">
-        <v>-3.807754242931974</v>
+        <v>-3.744182486641479</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-1.38955477090155</v>
       </c>
       <c r="E89" t="n">
-        <v>-26.92332094018653</v>
+        <v>-26.908113684327</v>
       </c>
       <c r="F89" t="n">
-        <v>4.266034810208109</v>
+        <v>4.224155577386115</v>
       </c>
       <c r="G89" t="n">
-        <v>-3.797262434195574</v>
+        <v>-3.735832062912788</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-1.257415316820881</v>
       </c>
       <c r="E90" t="n">
-        <v>-28.27592580250439</v>
+        <v>-28.26325838571221</v>
       </c>
       <c r="F90" t="n">
-        <v>4.445554253354359</v>
+        <v>4.403821690738373</v>
       </c>
       <c r="G90" t="n">
-        <v>-3.798890473482257</v>
+        <v>-3.734296914756577</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-1.177066313931025</v>
       </c>
       <c r="E91" t="n">
-        <v>-30.1093327116387</v>
+        <v>-30.09639884397227</v>
       </c>
       <c r="F91" t="n">
-        <v>3.95032230277021</v>
+        <v>3.910721347148198</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.147090431550806</v>
+        <v>-4.084887597183047</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-1.145831850445245</v>
       </c>
       <c r="E92" t="n">
-        <v>-31.82667948675931</v>
+        <v>-31.81036731534785</v>
       </c>
       <c r="F92" t="n">
-        <v>3.627305619073139</v>
+        <v>3.590828738839086</v>
       </c>
       <c r="G92" t="n">
-        <v>-4.188026086047485</v>
+        <v>-4.1292406674797</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-1.168071599519563</v>
       </c>
       <c r="E93" t="n">
-        <v>-33.501538347703</v>
+        <v>-33.48023694478385</v>
       </c>
       <c r="F93" t="n">
-        <v>3.325443668089209</v>
+        <v>3.289617025768456</v>
       </c>
       <c r="G93" t="n">
-        <v>-4.573079377878839</v>
+        <v>-4.520414995908432</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-1.236087940801605</v>
       </c>
       <c r="E94" t="n">
-        <v>-35.4083145828891</v>
+        <v>-35.38755097072531</v>
       </c>
       <c r="F94" t="n">
-        <v>2.870208682683291</v>
+        <v>2.836034524683555</v>
       </c>
       <c r="G94" t="n">
-        <v>-4.607771770606468</v>
+        <v>-4.551924645165698</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-1.34790562061424</v>
       </c>
       <c r="E95" t="n">
-        <v>-37.61774478817157</v>
+        <v>-37.59876077450733</v>
       </c>
       <c r="F95" t="n">
-        <v>2.260397967166123</v>
+        <v>2.230579914284808</v>
       </c>
       <c r="G95" t="n">
-        <v>-4.827835747700044</v>
+        <v>-4.768986772042989</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-1.499358924503229</v>
       </c>
       <c r="E96" t="n">
-        <v>-39.55657090787373</v>
+        <v>-39.53654064673998</v>
       </c>
       <c r="F96" t="n">
-        <v>2.071682302103206</v>
+        <v>2.041629576892279</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.124486017363842</v>
+        <v>-5.067582866439819</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-1.681882767092299</v>
       </c>
       <c r="E97" t="n">
-        <v>-41.69944461817345</v>
+        <v>-41.67190728699556</v>
       </c>
       <c r="F97" t="n">
-        <v>1.423023538021531</v>
+        <v>1.404019968329832</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.563973511651428</v>
+        <v>-5.506366343738569</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-1.903916576650774</v>
       </c>
       <c r="E98" t="n">
-        <v>-43.64684116691331</v>
+        <v>-43.6156566366127</v>
       </c>
       <c r="F98" t="n">
-        <v>1.058567632120489</v>
+        <v>1.034381715149861</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.848464821237209</v>
+        <v>-5.789464286367279</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-2.148703861787217</v>
       </c>
       <c r="E99" t="n">
-        <v>-46.17176876333154</v>
+        <v>-46.13789283475069</v>
       </c>
       <c r="F99" t="n">
-        <v>0.8802508846635002</v>
+        <v>0.857957013350368</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.200502649696286</v>
+        <v>-6.137126453680468</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-2.446243791423481</v>
       </c>
       <c r="E100" t="n">
-        <v>-48.72760221665897</v>
+        <v>-48.69417607670987</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.007773655622330258</v>
+        <v>-0.02837104155264293</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.507155827409792</v>
+        <v>-6.446815704658328</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-2.752625218215243</v>
       </c>
       <c r="E101" t="n">
-        <v>-50.64746021196921</v>
+        <v>-50.61379084392848</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.1571034813653804</v>
+        <v>-0.1761803861600826</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.988018986812079</v>
+        <v>-6.92358187630614</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-3.141477151165338</v>
       </c>
       <c r="E102" t="n">
-        <v>-52.97736899122135</v>
+        <v>-52.93851483139826</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.5865000654796534</v>
+        <v>-0.6035284763971182</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.300299411429404</v>
+        <v>-7.23569607468999</v>
       </c>
     </row>
   </sheetData>
